--- a/q22/Q22填表答案_向量结果_0.0.xlsx
+++ b/q22/Q22填表答案_向量结果_0.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,108 +448,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub002</t>
+          <t>sub008</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-1.5105, -6.3553, 14.1762, -1.124, -34.914]</t>
+          <t>[-1.5105, -15.6147, -51.8856, -34.914]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub004</t>
+          <t>sub010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-3.0525, 6.9832, 9.9932, -1.488]</t>
+          <t>[-3.0525, -3.6628, -13.6698, -10.274, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub005</t>
+          <t>sub013</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[3.7631, -15.6147, -0.4394]</t>
+          <t>[3.7631, 7.8906, -15.231, -7.072, -1.754]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub009</t>
+          <t>sub017</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1.3095, -3.6628, 9.8637]</t>
+          <t>[1.3095, -3.4063, -44.436, -34.853]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub012</t>
+          <t>sub023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-29.8915, 7.8906, -51.8856, -2.378, -10.274, -40.009, -1.794]</t>
+          <t>[-29.8915, -28.3319, -41.808, -40.009, -30.197, -3.868, -0.377]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub014</t>
+          <t>sub024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5.3274, -3.4063, -13.6698]</t>
+          <t>[5.3274, 8.4632, -1.124, 0.0]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub018</t>
+          <t>sub059</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[10.8235, -28.3319, -15.231, -9.754]</t>
+          <t>[10.8235, 2.718, -1.488]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub019</t>
+          <t>sub078</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[11.9654, 8.4632, -44.436, -29.34, -7.072, 0.0]</t>
+          <t>[11.9654, 14.1762, -2.378]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub020</t>
+          <t>sub079</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[4.9025, 2.718, -41.808, 10.5608, -34.853]</t>
+          <t>[4.9025, 9.9932, -9.754, -1.794, -0.053]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub088</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[-6.3553, -0.4394, -29.34]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub093</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[6.9832, 9.8637, 10.5608, -4.8811, -3.258]</t>
         </is>
       </c>
     </row>

--- a/q22/Q22填表答案_向量结果_0.0.xlsx
+++ b/q22/Q22填表答案_向量结果_0.0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,132 +448,720 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sub008</t>
+          <t>sub001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[-1.5105, -15.6147, -51.8856, -34.914]</t>
+          <t>[-24.8957, -33.4575, -48.1136, -65.5296, -77.7412]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sub010</t>
+          <t>sub003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-3.0525, -3.6628, -13.6698, -10.274, 0.0]</t>
+          <t>[-8.6338, -16.7606, -23.0287]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sub013</t>
+          <t>sub016</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[3.7631, 7.8906, -15.231, -7.072, -1.754]</t>
+          <t>[-5.0398, -11.4585, -61.3595]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sub017</t>
+          <t>sub021</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1.3095, -3.4063, -44.436, -34.853]</t>
+          <t>[11.0632, 6.9543, 12.1796, 25.5341]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sub023</t>
+          <t>sub025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-29.8915, -28.3319, -41.808, -40.009, -30.197, -3.868, -0.377]</t>
+          <t>[15.2755, 8.2021, 1.2943]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sub024</t>
+          <t>sub026</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[5.3274, 8.4632, -1.124, 0.0]</t>
+          <t>[2.8202, 5.5958, -14.717, -8.0656]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sub059</t>
+          <t>sub027</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[10.8235, 2.718, -1.488]</t>
+          <t>[16.7734, -14.9142, 13.0768, 23.2965]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sub078</t>
+          <t>sub028</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[11.9654, 14.1762, -2.378]</t>
+          <t>[7.4192, -1.7852, -11.018, -34.1519, 3.2691]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sub079</t>
+          <t>sub029</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[4.9025, 9.9932, -9.754, -1.794, -0.053]</t>
+          <t>[-20.486, -35.5449, 2.8555, 10.3296]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sub088</t>
+          <t>sub031</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[-6.3553, -0.4394, -29.34]</t>
+          <t>[6.5401, -11.5023, -19.6828]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sub093</t>
+          <t>sub032</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[6.9832, 9.8637, 10.5608, -4.8811, -3.258]</t>
+          <t>[23.2052, 20.107, 36.0719]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub033</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[22.7762, 19.3833, 6.2986, 12.5471, 46.6642, 32.5141]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub034</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[12.9211, -9.2108, -48.4734, -30.6356]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub036</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[7.3524, -8.3848, 25.3427, 13.6022, 28.3627]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub037</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[4.0262, -15.1197, -30.7046, -2.9879, 8.0304]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub038</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[19.5292, 14.2789, 3.2518, 10.9577, 20.1959]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub039</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[7.8482, -2.0433, -18.7897, -29.1038, -83.8487, -66.4767, 14.6373]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub040</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[19.5142, 8.4564, -6.2782, -1.0849, -50.8587, -6.4412]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub041</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[18.7462, 18.1908, 13.2742, 45.3059]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub043</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[3.5625, -2.4985, 4.7959, 15.6619]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub044</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[-1.8638, -13.5163, -30.879, -43.1498, -9.3281, -0.057]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub045</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[17.5072, 15.4023, 5.1313, 13.5999]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub046</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[-13.7478, -15.8827, 8.6944]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub047</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[18.1392, 16.2054, 12.7806, 23.6799]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub048</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[19.4422, -5.9779, -14.8217, -29.1418]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub049</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[20.6111, 21.7542, 30.1938, 42.4928]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub050</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[15.7158, 14.92, 23.9802]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub051</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[7.4028, -0.8404, 34.585, 42.2254, 7.8372]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub052</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[17.0956, -17.8368, -36.0554, -23.7352, 0.2591, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub053</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[7.2232, 3.4782, -9.507, 27.2731]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>sub054</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[11.2872, 8.9862, 13.0369, 22.297]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>sub055</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[8.4982, -11.1335, -13.0006]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>sub056</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[-5.7498, -7.9644, -8.3158, -0.4693, 9.3023, 8.9406, 37.7382, 43.2945, 49.1331]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>sub057</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[15.8172, 16.4499, 35.4577]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>sub058</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[13.0871, 6.5276, 11.3307]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>sub060</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[-9.7249, -19.3309, -13.196, -8.9067, -4.4597, -6.6324, 7.9899, 22.0902, 27.7741]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sub061</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[8.7151, 3.2334, -28.1897, -40.6546, -51.3632, -67.1638]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sub062</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[13.8624, 12.1273, 15.1671]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>sub063</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[16.9411, 16.7306, 7.0595, -19.5316, -18.991, -0.4685, -94.1042, -24.4856]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sub065</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[-21.0868, -13.3463, -14.428, -1.2723]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sub066</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[4.112, -14.9339, -6.6732, 7.5457, 29.7158]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>sub068</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[9.3062, 3.2621, -16.0661, -7.5544, -6.9618, 0.0068, -0.451, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sub073</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[20.0132, 19.0415, 27.5397]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sub074</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[-5.3668, -16.8338, -29.3194, -46.3762, -58.3822, -23.6283]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sub076</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[13.7972, 12.8983, 16.9648, 24.1565, 40.7493]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sub077</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[14.9842, -6.7523, 4.7317, -9.197, 7.9354]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sub080</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[12.0446, 11.566, 37.4045]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sub082</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[-9.9218, -2.7636, 7.3825]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sub083</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[1.2401, -13.0581, -14.3246]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sub084</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[20.7352, 13.4454, 5.3567, 0.0773, -2.2026]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sub085</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[-29.7118, -22.9866, -33.3834, -20.647, 20.3395, 30.5075]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>sub087</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[23.5532, 23.2668, 39.3848, 44.5235, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>sub090</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[-5.6268, -51.5252, 19.1589, 35.6596]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>sub094</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[16.5368, 10.2852, 13.1482, 33.8072, 0.0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>sub095</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[10.7172, -58.4682, -68.3203, -123.139, -76.8114]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>sub097</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[13.8324, 17.5363, 35.1624]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>sub098</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[-15.8447, -2.0345, 11.192, 7.4129, 10.9055]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>sub099</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[14.4064, 5.6079, -3.9773]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sub100</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[16.5121, 20.3454, 35.0855]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[14.2872]</t>
         </is>
       </c>
     </row>
